--- a/storage/app/private/format/FormatPerhitunganGaji.xlsx
+++ b/storage/app/private/format/FormatPerhitunganGaji.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>NO</t>
   </si>
@@ -176,13 +176,13 @@
     <t>( Penerimaan - Potongan)</t>
   </si>
   <si>
-    <t>ITS.21008.211229.CKR</t>
-  </si>
-  <si>
-    <t>E.M Hadi Sastra P.</t>
-  </si>
-  <si>
-    <t>Pengawas Outsourcing</t>
+    <t>ITS.00000.000000.CKR</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Direktur</t>
   </si>
   <si>
     <t>Bapelkes Cikarang</t>
@@ -191,49 +191,10 @@
     <t>PKWT</t>
   </si>
   <si>
-    <t>BNI</t>
-  </si>
-  <si>
-    <t>Emon Muhammad Hadi S.</t>
-  </si>
-  <si>
-    <t>ITS.21009.211231.CKR</t>
-  </si>
-  <si>
-    <t>Karina Syafarini</t>
-  </si>
-  <si>
-    <t>Administrasi</t>
-  </si>
-  <si>
-    <t>ITS.21010.211231.CKR</t>
-  </si>
-  <si>
-    <t>Anti Hardiati</t>
-  </si>
-  <si>
-    <t>ITS.21013.211231.CKR</t>
-  </si>
-  <si>
-    <t>Kendar Hermawan</t>
-  </si>
-  <si>
-    <t>ITS.21014.211231.CKR</t>
-  </si>
-  <si>
-    <t>Misri Raharjo</t>
-  </si>
-  <si>
-    <t>ITS.21015.211231.CKR</t>
-  </si>
-  <si>
-    <t>Pipit Martini Dimiyatin</t>
-  </si>
-  <si>
-    <t>ITS.24261.240115.CKR</t>
-  </si>
-  <si>
-    <t>Luthfi Husni Darmawan</t>
+    <t>Mandiri</t>
+  </si>
+  <si>
+    <t>1730002978501</t>
   </si>
 </sst>
 </file>
@@ -899,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,13 +895,9 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -950,6 +907,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1" quotePrefix="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1484,13 +1445,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.5714285714286" style="3" customWidth="1"/>
@@ -1594,7 +1555,7 @@
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
       <c r="AL1" s="5"/>
-      <c r="AM1" s="13" t="s">
+      <c r="AM1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="AN1" s="10" t="s">
@@ -1603,7 +1564,7 @@
       <c r="AO1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AQ1" s="4" t="s">
@@ -1635,7 +1596,7 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
-      <c r="Y2" s="11"/>
+      <c r="Y2" s="5"/>
       <c r="Z2" s="10" t="s">
         <v>16</v>
       </c>
@@ -1658,7 +1619,7 @@
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
-      <c r="AP2" s="16"/>
+      <c r="AP2" s="14"/>
       <c r="AQ2" s="6"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="63.75" spans="1:43">
@@ -1720,7 +1681,7 @@
       <c r="X3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="5"/>
       <c r="Z3" s="10" t="s">
         <v>36</v>
       </c>
@@ -1761,11 +1722,11 @@
         <v>47</v>
       </c>
       <c r="AM3" s="5"/>
-      <c r="AN3" s="14" t="s">
+      <c r="AN3" s="12" t="s">
         <v>48</v>
       </c>
       <c r="AO3" s="5"/>
-      <c r="AP3" s="16"/>
+      <c r="AP3" s="14"/>
       <c r="AQ3" s="6"/>
     </row>
     <row r="4" spans="1:43">
@@ -1788,7 +1749,7 @@
         <v>53</v>
       </c>
       <c r="G4" s="7">
-        <v>4770000</v>
+        <v>5000000</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -1821,7 +1782,7 @@
         <v>20</v>
       </c>
       <c r="R4" s="7">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7">
@@ -1838,7 +1799,7 @@
       <c r="Y4" s="7">
         <v>5270000</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="11">
         <v>0</v>
       </c>
       <c r="AA4" s="7">
@@ -1882,701 +1843,15 @@
       <c r="AO4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AP4" s="7">
-        <v>1553767914</v>
+      <c r="AP4" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="AQ4" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="H5" s="7">
-        <v>19</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>20</v>
-      </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>100000</v>
-      </c>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7">
-        <v>55585</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>102752</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>91400</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>45700</v>
-      </c>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7">
-        <v>395437</v>
-      </c>
-      <c r="AN5" s="7">
-        <v>4374563</v>
-      </c>
-      <c r="AO5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP5" s="7">
-        <v>1505922549</v>
-      </c>
-      <c r="AQ5" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="H6" s="7">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>20</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>100000</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>100000</v>
-      </c>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7">
-        <v>55585</v>
-      </c>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7">
-        <v>91400</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>45700</v>
-      </c>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7">
-        <v>392685</v>
-      </c>
-      <c r="AN6" s="7">
-        <v>4377315</v>
-      </c>
-      <c r="AO6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP6" s="7">
-        <v>1551557217</v>
-      </c>
-      <c r="AQ6" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="H7" s="7">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>20</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>100000</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>200000</v>
-      </c>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7">
-        <v>55585</v>
-      </c>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7">
-        <v>91400</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>45700</v>
-      </c>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7">
-        <v>492685</v>
-      </c>
-      <c r="AN7" s="7">
-        <v>4277315</v>
-      </c>
-      <c r="AO7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP7" s="7">
-        <v>1508748317</v>
-      </c>
-      <c r="AQ7" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="H8" s="7">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>20</v>
-      </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>100000</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>100000</v>
-      </c>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7">
-        <v>55585</v>
-      </c>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7">
-        <v>91400</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>45700</v>
-      </c>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7">
-        <v>392685</v>
-      </c>
-      <c r="AN8" s="7">
-        <v>4377315</v>
-      </c>
-      <c r="AO8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP8" s="7">
-        <v>1508748497</v>
-      </c>
-      <c r="AQ8" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>20</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>108809.523809524</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>100000</v>
-      </c>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7">
-        <v>200000</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>55585</v>
-      </c>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7">
-        <v>91400</v>
-      </c>
-      <c r="AK9" s="7">
-        <v>45700</v>
-      </c>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7">
-        <v>601494.523809524</v>
-      </c>
-      <c r="AN9" s="7">
-        <v>4168505.47619048</v>
-      </c>
-      <c r="AO9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP9" s="7">
-        <v>1552638436</v>
-      </c>
-      <c r="AQ9" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>20</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7">
-        <v>4770000</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7">
-        <v>55585</v>
-      </c>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7">
-        <v>91400</v>
-      </c>
-      <c r="AK10" s="7">
-        <v>45700</v>
-      </c>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7">
-        <v>192685</v>
-      </c>
-      <c r="AN10" s="7">
-        <v>4577315</v>
-      </c>
-      <c r="AO10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP10" s="7">
-        <v>1822536766</v>
-      </c>
-      <c r="AQ10" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L2SQQFfvlFqiZ5dImfJ0MssaJj4elHUuES4rVXKtbPvvnb1ycQiCvyTWwMd5fxda5uGcw2/bs4pVxHfW0n9YLQ==" saltValue="qqKyqMckA/vH0cHyq8PW0A==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection sheet="1" insertRows="0" deleteRows="0" objects="1"/>
   <mergeCells count="19">
     <mergeCell ref="Z1:AL1"/>
     <mergeCell ref="Z2:AC2"/>

--- a/storage/app/private/format/FormatPerhitunganGaji.xlsx
+++ b/storage/app/private/format/FormatPerhitunganGaji.xlsx
@@ -1448,7 +1448,7 @@
   <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AQ4" sqref="AQ4"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1851,7 +1851,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" insertRows="0" deleteRows="0" objects="1"/>
+  <sheetProtection insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
     <mergeCell ref="Z1:AL1"/>
     <mergeCell ref="Z2:AC2"/>
@@ -1876,19 +1876,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master="" otherUserPermission="visible"/>
-</allowEditUser>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>